--- a/Document/Emin/混合开发框架_Android.xlsx
+++ b/Document/Emin/混合开发框架_Android.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <r>
       <t>&lt;</t>
@@ -411,6 +411,10 @@
   </si>
   <si>
     <t>设置manifest.json 文件中launch_path的值,如该webapp的入口是index.html,  则该值就是 index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置 /app/src/main/assets/data 下的control.xml,配置appid,以及appver(webapp的版本),这个值都是以manifest.json中的id和version一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F54"/>
+  <dimension ref="B3:F56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1081,6 +1085,11 @@
     <row r="54" spans="3:3">
       <c r="C54" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
